--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13480" windowHeight="13300"/>
+    <workbookView windowWidth="22943" windowHeight="10475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>十六进制</t>
   </si>
@@ -39,16 +39,22 @@
   <si>
     <t>0100</t>
   </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,7 +80,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,9 +116,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,7 +154,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,9 +170,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,83 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,37 +224,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,25 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,31 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,79 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,56 +429,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,221 +489,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="0"/>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -994,21 +1003,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:7">
+    <row r="1" ht="17.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1052,6 +1062,52 @@
       </c>
       <c r="G2" s="1">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1010</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1101</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1011</v>
+      </c>
+      <c r="G6" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10475"/>
+    <workbookView windowWidth="13480" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,68 +72,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,49 +140,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,16 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,109 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,73 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,32 +436,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,164 +506,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,58 +693,63 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="0"/>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1003,7 +1005,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1013,12 +1014,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:7">
+    <row r="1" ht="16.8" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="16.8" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,34 +1065,34 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="1:7">
+    <row r="6" ht="16.8" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>1100</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1010</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>1101</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>1011</v>
       </c>
-      <c r="G6" s="3">
-        <v>11</v>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:7">
+    <row r="7" ht="16.8" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1106,7 +1107,7 @@
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>3</v>
       </c>
     </row>

--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13480" windowHeight="13300"/>
+    <workbookView windowWidth="13480" windowHeight="13300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>十六进制</t>
   </si>
@@ -44,6 +45,39 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>大端机器</t>
+  </si>
+  <si>
+    <t>0x100</t>
+  </si>
+  <si>
+    <t>0x101</t>
+  </si>
+  <si>
+    <t>0x102</t>
+  </si>
+  <si>
+    <t>0x103</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>小端机器</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -51,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,22 +113,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,32 +181,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,12 +197,34 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,61 +233,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,169 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,32 +480,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,6 +524,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -524,9 +556,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,153 +569,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,101 +1056,101 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>7</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>1010</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>1100</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>1010</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>1101</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>1011</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="16.8" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1115,4 +1158,107 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A4:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13480" windowHeight="13300" activeTab="1"/>
+    <workbookView windowWidth="13480" windowHeight="13300" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="问题2.2" sheetId="3" r:id="rId3"/>
+    <sheet name="问题2.3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>十六进制</t>
   </si>
@@ -78,6 +80,120 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>4的倍数表示</t>
+  </si>
+  <si>
+    <t>2^n(十进制)</t>
+  </si>
+  <si>
+    <t>2^n（十六进制）</t>
+  </si>
+  <si>
+    <t>4*1+1</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>5*4+3</t>
+  </si>
+  <si>
+    <t>0x800000</t>
+  </si>
+  <si>
+    <t>3*4+3</t>
+  </si>
+  <si>
+    <t>0x8000</t>
+  </si>
+  <si>
+    <t>3*4+1</t>
+  </si>
+  <si>
+    <t>0x2000</t>
+  </si>
+  <si>
+    <t>3*4+0</t>
+  </si>
+  <si>
+    <t>0x1000</t>
+  </si>
+  <si>
+    <t>1*4+2</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>2*4+0</t>
+  </si>
+  <si>
+    <t>十进制</t>
+  </si>
+  <si>
+    <t>0000 0000</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>1001 1110</t>
+  </si>
+  <si>
+    <t>0x9E</t>
+  </si>
+  <si>
+    <t>0100 1100</t>
+  </si>
+  <si>
+    <t>0x4C</t>
+  </si>
+  <si>
+    <t>0010 1101</t>
+  </si>
+  <si>
+    <t>0x2D</t>
+  </si>
+  <si>
+    <t>1010 1110</t>
+  </si>
+  <si>
+    <t>0xAE</t>
+  </si>
+  <si>
+    <t>0011 1100</t>
+  </si>
+  <si>
+    <t>0x3C</t>
+  </si>
+  <si>
+    <t>1111 0001</t>
+  </si>
+  <si>
+    <t>0xF1</t>
+  </si>
+  <si>
+    <t>0111 0101</t>
+  </si>
+  <si>
+    <t>0x75</t>
+  </si>
+  <si>
+    <t>1011 1101</t>
+  </si>
+  <si>
+    <t>0xBD</t>
+  </si>
+  <si>
+    <t>1111 0101</t>
+  </si>
+  <si>
+    <t>0xF5</t>
   </si>
 </sst>
 </file>
@@ -86,17 +202,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -106,14 +228,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +295,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -135,6 +318,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -144,36 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,25 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,37 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,33 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,6 +604,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -519,21 +625,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -556,11 +647,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,154 +691,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,10 +858,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,94 +1194,94 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="7">
         <v>7</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1010</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>1100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>1010</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>1101</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>1011</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="16.8" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1165,91 +1296,91 @@
   <sheetPr/>
   <dimension ref="A4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>45</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1261,4 +1392,279 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="3" width="12.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="14" spans="1:4">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:4">
+      <c r="A3" s="2">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8388608</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="1:4">
+      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32768</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="14" spans="1:4">
+      <c r="A5" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8192</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="1:4">
+      <c r="A6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="14" spans="1:4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="1:4">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2">
+        <v>256</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="10.5333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14"/>
+    <row r="2" ht="14" spans="4:6">
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="4:6">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="4:6">
+      <c r="D4" s="2">
+        <v>158</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="14" spans="4:6">
+      <c r="D5" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="4:6">
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="14" spans="4:6">
+      <c r="D7" s="2">
+        <v>175</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="4:6">
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="14" spans="4:6">
+      <c r="D9" s="2">
+        <v>241</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="14" spans="4:6">
+      <c r="D10" s="2">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" ht="14" spans="4:6">
+      <c r="D11" s="2">
+        <v>189</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="14" spans="4:6">
+      <c r="D12" s="2">
+        <v>245</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13480" windowHeight="13300" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18060" windowHeight="13300" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="问题2.2" sheetId="3" r:id="rId3"/>
     <sheet name="问题2.3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>十六进制</t>
   </si>
@@ -194,6 +195,36 @@
   </si>
   <si>
     <t>0xF5</t>
+  </si>
+  <si>
+    <t>示例机器</t>
+  </si>
+  <si>
+    <t>机器码</t>
+  </si>
+  <si>
+    <t>Linux 32</t>
+  </si>
+  <si>
+    <t>55 89 e5 8b 45 0c 03 45 08 c9 c3</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>55 89 e5 8b 45 0c 03 45 08 5d c3</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>81 c3 e0 08 90 02 00 09</t>
+  </si>
+  <si>
+    <t>Linux 64</t>
+  </si>
+  <si>
+    <t>55 48 89 e5 89 7d fc 89 75 f8 03 45 fc c9 c3</t>
   </si>
 </sst>
 </file>
@@ -201,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,7 +259,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +327,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,21 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -287,63 +380,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,20 +401,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +620,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -604,13 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +692,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -644,195 +717,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,16 +1441,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1427,13 +1458,13 @@
       <c r="A2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1441,13 +1472,13 @@
       <c r="A3" s="2">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3">
         <v>8388608</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1455,13 +1486,13 @@
       <c r="A4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>32768</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1469,13 +1500,13 @@
       <c r="A5" s="2">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>8192</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1483,13 +1514,13 @@
       <c r="A6" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
         <v>4096</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1497,13 +1528,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1511,13 +1542,13 @@
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>256</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1530,9 +1561,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D1:F12"/>
+  <dimension ref="D2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F12"/>
     </sheetView>
   </sheetViews>
@@ -1541,15 +1572,14 @@
     <col min="2" max="2" width="10.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14"/>
     <row r="2" ht="14" spans="4:6">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1557,10 +1587,10 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1568,10 +1598,10 @@
       <c r="D4" s="2">
         <v>158</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1579,10 +1609,10 @@
       <c r="D5" s="2">
         <v>76</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1590,10 +1620,10 @@
       <c r="D6" s="2">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1601,10 +1631,10 @@
       <c r="D7" s="2">
         <v>175</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1612,10 +1642,10 @@
       <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1623,10 +1653,10 @@
       <c r="D9" s="2">
         <v>241</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1634,10 +1664,10 @@
       <c r="D10" s="2">
         <v>117</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1645,10 +1675,10 @@
       <c r="D11" s="2">
         <v>189</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1656,11 +1686,72 @@
       <c r="D12" s="2">
         <v>245</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B7:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="8.86666666666667" customWidth="1"/>
+    <col min="3" max="3" width="39.2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="14" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="14" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" ht="14" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="14" spans="2:3">
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,29 +4,48 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="13300" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27500" windowHeight="13300" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="问题2.2" sheetId="3" r:id="rId3"/>
-    <sheet name="问题2.3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="问题2.28" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="问题2.2" sheetId="3" r:id="rId4"/>
+    <sheet name="问题2.3" sheetId="4" r:id="rId5"/>
+    <sheet name="示例机器" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-u4x</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
   <si>
     <t>十六进制</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>二进制</t>
@@ -232,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -259,14 +278,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +307,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,120 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,25 +436,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,151 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,8 +642,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,15 +653,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +672,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,17 +698,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -717,166 +712,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,6 +909,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,6 +1241,124 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.06666666666667" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1225,94 +1368,94 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>7</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7">
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>2</v>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1010</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1010</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1101</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1011</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
-        <v>1010</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" ht="16.8" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1010</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1101</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1011</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="16.8" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1322,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A4:E12"/>
@@ -1334,85 +1477,85 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5">
         <v>23</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>45</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D8"/>
@@ -1441,115 +1584,115 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" ht="14" spans="1:4">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:4">
+      <c r="A3" s="1">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" ht="14" spans="1:4">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="14" spans="1:4">
-      <c r="A3" s="2">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
         <v>8388608</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="14" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
         <v>32768</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="14" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
         <v>8192</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
         <v>4096</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="14" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="14" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
         <v>256</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D2:F12"/>
@@ -1573,124 +1716,124 @@
   </cols>
   <sheetData>
     <row r="2" ht="14" spans="4:6">
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="4:6">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="14" spans="4:6">
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="14" spans="4:6">
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>158</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="14" spans="4:6">
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>76</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="14" spans="4:6">
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="14" spans="4:6">
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>175</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="14" spans="4:6">
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="14" spans="4:6">
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>241</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="14" spans="4:6">
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>117</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="14" spans="4:6">
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>189</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="14" spans="4:6">
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>245</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1699,13 +1842,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B7:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="2"/>
@@ -1716,42 +1859,42 @@
   <sheetData>
     <row r="7" ht="14" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="14" spans="2:3">
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="14" spans="2:3">
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="14" spans="2:3">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="14" spans="2:3">
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/notes/chapter2.xlsx
+++ b/notes/chapter2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="13300" firstSheet="1"/>
+    <workbookView windowHeight="16900" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="问题2.28" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="问题2.2" sheetId="3" r:id="rId4"/>
     <sheet name="问题2.3" sheetId="4" r:id="rId5"/>
     <sheet name="示例机器" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>x</t>
   </si>
@@ -244,6 +245,93 @@
   </si>
   <si>
     <t>55 48 89 e5 89 7d fc 89 75 f8 03 45 fc c9 c3</t>
+  </si>
+  <si>
+    <t>假设小数点后保留一位小数</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>舍入前</t>
+  </si>
+  <si>
+    <t>舍入后</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>11.010</t>
+  </si>
+  <si>
+    <t>11.000</t>
+  </si>
+  <si>
+    <t>10.110</t>
+  </si>
+  <si>
+    <t>格式A</t>
+  </si>
+  <si>
+    <t>格式B</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011 0000 </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0111 000</t>
+  </si>
+  <si>
+    <t>101 1110</t>
+  </si>
+  <si>
+    <t>15/2</t>
+  </si>
+  <si>
+    <t>1001 111</t>
+  </si>
+  <si>
+    <t>010 1001</t>
+  </si>
+  <si>
+    <t>25/32</t>
+  </si>
+  <si>
+    <t>0110 100</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>110 1111</t>
+  </si>
+  <si>
+    <t>31/2</t>
+  </si>
+  <si>
+    <t>1011 000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>000 0001</t>
+  </si>
+  <si>
+    <t>1/64</t>
+  </si>
+  <si>
+    <t>0001 000</t>
   </si>
 </sst>
 </file>
@@ -253,10 +341,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +353,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -275,6 +369,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,13 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -315,18 +409,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +462,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,51 +514,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -436,49 +530,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,127 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +736,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -657,6 +760,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -668,6 +786,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,203 +830,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -905,19 +1017,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,106 +1352,106 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.06666666666667" style="8"/>
+    <col min="1" max="1" width="9.06666666666667" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <v>15</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8">
+      <c r="A4" s="14">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="14">
         <v>7</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="14">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
     </row>
@@ -1368,94 +1477,94 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="16.8" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="12">
         <v>7</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="12">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="12">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="12">
         <v>1010</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="12">
         <v>1100</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>1100</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="12">
         <v>1010</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="12">
         <v>1101</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="12">
         <v>1011</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="16.8" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1477,84 +1586,84 @@
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>45</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1584,114 +1693,114 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" ht="14" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="14" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>8388608</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="14" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>32768</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" ht="14" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>8192</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>4096</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="14" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" ht="14" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>256</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1716,123 +1825,123 @@
   </cols>
   <sheetData>
     <row r="2" ht="14" spans="4:6">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="14" spans="4:6">
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" ht="14" spans="4:6">
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>158</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="14" spans="4:6">
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>76</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="14" spans="4:6">
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" ht="14" spans="4:6">
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>175</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" ht="14" spans="4:6">
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="14" spans="4:6">
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>241</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" ht="14" spans="4:6">
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>117</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" ht="14" spans="4:6">
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>189</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" ht="14" spans="4:6">
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>245</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1858,42 +1967,42 @@
   </cols>
   <sheetData>
     <row r="7" ht="14" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="14" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="14" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="14" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="14" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1901,4 +2010,178 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B8:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="5" width="9.06666666666667" style="1"/>
+    <col min="6" max="6" width="27.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" ht="16.8" spans="6:8">
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" ht="16.8" spans="6:7">
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="16.8" spans="6:7">
+      <c r="F10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="6:7">
+      <c r="F11" s="6">
+        <v>10.111</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" spans="6:7">
+      <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" spans="6:7">
+      <c r="F13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" spans="6:7">
+      <c r="F14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>